--- a/download/2016svi_dictionary.xlsx
+++ b/download/2016svi_dictionary.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LocalGitHub\svi-calculation\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA6F1590-CF76-4B9F-854E-58B978CCC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ECDF3E-5974-4698-9786-C92302B93E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{D4086AE9-B17A-4CDC-AC43-84F9978757FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Append1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Append1!$A$1:$H$140</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Append1!$A$1:$H$139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -155,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="449">
   <si>
     <t>2016
 VARIABLE
@@ -2275,9 +2274,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2335,8 +2333,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9A669D7-7B4B-47D6-90AC-D8C90C7CB33E}" name="Append1" displayName="Append1" ref="A1:H140" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H140" xr:uid="{C9A669D7-7B4B-47D6-90AC-D8C90C7CB33E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9A669D7-7B4B-47D6-90AC-D8C90C7CB33E}" name="Append1" displayName="Append1" ref="A1:H139" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H139" xr:uid="{C9A669D7-7B4B-47D6-90AC-D8C90C7CB33E}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9F2F352E-A120-47AF-B397-F157B588DA24}" uniqueName="1" name="2016_x000a_VARIABLE_x000a_NAME" queryTableFieldId="1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{741C7BCC-500F-4E6D-8545-113C66662062}" uniqueName="2" name="2016_x000a_DESCRIPTION" queryTableFieldId="2" dataDxfId="5"/>
@@ -2648,9 +2646,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB649DA-5063-4208-9E95-3E3CC91A9E43}">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2690,3345 +2690,3236 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>67</v>
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>70</v>
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>74</v>
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>10</v>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>77</v>
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>80</v>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>82</v>
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>84</v>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>86</v>
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>90</v>
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
       </c>
       <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>93</v>
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>98</v>
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>101</v>
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>104</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>104</v>
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>106</v>
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>109</v>
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="E30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>112</v>
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>116</v>
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
       </c>
       <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>120</v>
+      <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>124</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>121</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>124</v>
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>128</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>128</v>
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="E35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>133</v>
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
       </c>
       <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>137</v>
+      <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
+        <v>141</v>
       </c>
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="E37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>141</v>
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="E38" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>145</v>
+      <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" t="s">
+        <v>148</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="E39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>148</v>
+      <c r="A40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="E40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>151</v>
+      <c r="A41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" t="s">
+        <v>155</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="E41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F41" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" t="s">
         <v>96</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>155</v>
+      <c r="A42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" t="s">
+        <v>159</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="E42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
         <v>96</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>159</v>
+      <c r="A43" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" t="s">
+        <v>162</v>
       </c>
       <c r="C43">
         <v>4</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="E43" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
         <v>96</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>162</v>
+      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" t="s">
+        <v>165</v>
       </c>
       <c r="C44">
         <v>4</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="D44" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>165</v>
+      <c r="A45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
       </c>
       <c r="C45">
         <v>4</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>166</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="1" t="s">
+      <c r="E45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>168</v>
+      <c r="A46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" t="s">
+        <v>170</v>
       </c>
       <c r="C46">
-        <v>4</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>170</v>
+      <c r="A47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" t="s">
+        <v>173</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="E47" t="s">
+        <v>174</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>173</v>
+      <c r="A48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" t="s">
+        <v>176</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="D48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>176</v>
+      <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" t="s">
+        <v>179</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="1" t="s">
+      <c r="E49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>179</v>
+      <c r="A50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>10</v>
+      <c r="D50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>77</v>
+      <c r="A51" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" t="s">
+        <v>82</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>182</v>
+      <c r="E51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>82</v>
+      <c r="A52" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" t="s">
+        <v>186</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>184</v>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>186</v>
+      <c r="A53" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" t="s">
+        <v>189</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="1" t="s">
+      <c r="E53" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>189</v>
+      <c r="A54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" t="s">
+        <v>192</v>
       </c>
       <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54" t="s">
+        <v>194</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>192</v>
+      <c r="A55" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" t="s">
+        <v>196</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>193</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="1" t="s">
+      <c r="E55" t="s">
+        <v>197</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>196</v>
+      <c r="A56" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56" t="s">
+        <v>199</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>10</v>
+      <c r="D56" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" t="s">
+        <v>201</v>
+      </c>
+      <c r="F56" t="s">
+        <v>202</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>199</v>
+      <c r="A57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" t="s">
+        <v>205</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>200</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>203</v>
+      <c r="E57" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" t="s">
+        <v>207</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>205</v>
+      <c r="A58" t="s">
+        <v>209</v>
+      </c>
+      <c r="B58" t="s">
+        <v>210</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>208</v>
+      <c r="D58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>210</v>
+      <c r="A59" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" t="s">
+        <v>213</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>59</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="1" t="s">
+      <c r="E59" t="s">
+        <v>214</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>213</v>
+      <c r="A60" t="s">
+        <v>215</v>
+      </c>
+      <c r="B60" t="s">
+        <v>216</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>10</v>
+      <c r="D60" t="s">
+        <v>200</v>
+      </c>
+      <c r="E60" t="s">
+        <v>217</v>
+      </c>
+      <c r="F60" t="s">
+        <v>218</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>216</v>
+      <c r="A61" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" t="s">
+        <v>221</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>200</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="1" t="s">
+      <c r="E61" t="s">
+        <v>222</v>
+      </c>
+      <c r="F61" t="s">
+        <v>223</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" t="s">
+        <v>226</v>
+      </c>
+      <c r="F62" t="s">
+        <v>227</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>225</v>
+      <c r="A63" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63" t="s">
+        <v>229</v>
       </c>
       <c r="C63">
         <v>3</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>200</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>219</v>
+      <c r="E63" t="s">
+        <v>230</v>
+      </c>
+      <c r="F63" t="s">
+        <v>231</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C64">
+      <c r="H64" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>233</v>
+      </c>
+      <c r="F65" t="s">
+        <v>234</v>
+      </c>
+      <c r="H65" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66">
         <v>3</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D66" t="s">
+        <v>238</v>
+      </c>
+      <c r="E66" t="s">
+        <v>239</v>
+      </c>
+      <c r="F66" t="s">
+        <v>240</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>242</v>
+      </c>
+      <c r="D67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>244</v>
+      </c>
+      <c r="H68" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>248</v>
+      </c>
+      <c r="B71" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>250</v>
+      </c>
+      <c r="E71" t="s">
+        <v>251</v>
+      </c>
+      <c r="F71" t="s">
+        <v>252</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>253</v>
+      </c>
+      <c r="B72" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
         <v>200</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>208</v>
+      <c r="E72" t="s">
+        <v>255</v>
+      </c>
+      <c r="F72" t="s">
+        <v>256</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>254</v>
+      <c r="A73" t="s">
+        <v>258</v>
+      </c>
+      <c r="B73" t="s">
+        <v>259</v>
       </c>
       <c r="C73">
         <v>4</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" t="s">
         <v>200</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>257</v>
+      <c r="E73" t="s">
+        <v>260</v>
+      </c>
+      <c r="F73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>259</v>
+      <c r="A74" t="s">
+        <v>262</v>
+      </c>
+      <c r="B74" t="s">
+        <v>263</v>
       </c>
       <c r="C74">
         <v>4</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>208</v>
+      <c r="D74" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" t="s">
+        <v>264</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>263</v>
+      <c r="A75" t="s">
+        <v>265</v>
+      </c>
+      <c r="B75" t="s">
+        <v>266</v>
       </c>
       <c r="C75">
         <v>4</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>10</v>
+      <c r="D75" t="s">
+        <v>267</v>
+      </c>
+      <c r="E75" t="s">
+        <v>268</v>
+      </c>
+      <c r="F75" t="s">
+        <v>269</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>266</v>
+      <c r="A76" t="s">
+        <v>271</v>
+      </c>
+      <c r="B76" t="s">
+        <v>272</v>
       </c>
       <c r="C76">
         <v>4</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>267</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>270</v>
+      <c r="E76" t="s">
+        <v>273</v>
+      </c>
+      <c r="F76" t="s">
+        <v>274</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C77">
+      <c r="E77" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>278</v>
+      </c>
+      <c r="B79" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79">
         <v>4</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="D79" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" t="s">
+        <v>280</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>96</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>279</v>
+      <c r="A80" t="s">
+        <v>281</v>
+      </c>
+      <c r="B80" t="s">
+        <v>282</v>
       </c>
       <c r="C80">
         <v>4</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" t="s">
         <v>52</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="1" t="s">
+      <c r="E80" t="s">
+        <v>283</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
         <v>96</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C81">
+      <c r="H81" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>286</v>
+      </c>
+      <c r="B84" t="s">
+        <v>287</v>
+      </c>
+      <c r="C84">
         <v>4</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1" t="s">
-        <v>285</v>
+      <c r="D84" t="s">
+        <v>200</v>
+      </c>
+      <c r="E84" t="s">
+        <v>288</v>
+      </c>
+      <c r="F84" t="s">
+        <v>289</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C85">
+      <c r="E85" t="s">
+        <v>243</v>
+      </c>
+      <c r="F85" t="s">
+        <v>291</v>
+      </c>
+      <c r="H85" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>293</v>
+      </c>
+      <c r="B89" t="s">
+        <v>294</v>
+      </c>
+      <c r="C89">
         <v>4</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D89" t="s">
         <v>200</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1" t="s">
-        <v>247</v>
+      <c r="E89" t="s">
+        <v>295</v>
+      </c>
+      <c r="F89" t="s">
+        <v>296</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>294</v>
+      <c r="A90" t="s">
+        <v>297</v>
+      </c>
+      <c r="B90" t="s">
+        <v>298</v>
       </c>
       <c r="C90">
-        <v>4</v>
-      </c>
-      <c r="D90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
         <v>200</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>275</v>
+      <c r="E90" t="s">
+        <v>299</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>298</v>
+      <c r="A91" t="s">
+        <v>300</v>
+      </c>
+      <c r="B91" t="s">
+        <v>301</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" t="s">
         <v>200</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="1" t="s">
+      <c r="E91" t="s">
+        <v>302</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>301</v>
+      <c r="A92" t="s">
+        <v>303</v>
+      </c>
+      <c r="B92" t="s">
+        <v>304</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" t="s">
         <v>200</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>10</v>
+      <c r="E92" t="s">
+        <v>305</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>304</v>
+      <c r="A93" t="s">
+        <v>307</v>
+      </c>
+      <c r="B93" t="s">
+        <v>308</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" t="s">
         <v>200</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>306</v>
+      <c r="E93" t="s">
+        <v>309</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>308</v>
+      <c r="A94" t="s">
+        <v>310</v>
+      </c>
+      <c r="B94" t="s">
+        <v>311</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" t="s">
         <v>200</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>10</v>
+      <c r="E94" t="s">
+        <v>312</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>311</v>
+      <c r="A95" t="s">
+        <v>314</v>
+      </c>
+      <c r="B95" t="s">
+        <v>315</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" t="s">
         <v>200</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>313</v>
+      <c r="E95" t="s">
+        <v>316</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>315</v>
+      <c r="A96" t="s">
+        <v>318</v>
+      </c>
+      <c r="B96" t="s">
+        <v>319</v>
       </c>
       <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
         <v>200</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>317</v>
+      <c r="E96" t="s">
+        <v>320</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>319</v>
+      <c r="A97" t="s">
+        <v>321</v>
+      </c>
+      <c r="B97" t="s">
+        <v>322</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" t="s">
         <v>200</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="1" t="s">
+      <c r="E97" t="s">
+        <v>323</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>322</v>
+      <c r="A98" t="s">
+        <v>324</v>
+      </c>
+      <c r="B98" t="s">
+        <v>325</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" t="s">
         <v>200</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="1" t="s">
+      <c r="E98" t="s">
+        <v>326</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>325</v>
+      <c r="A99" t="s">
+        <v>327</v>
+      </c>
+      <c r="B99" t="s">
+        <v>328</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" t="s">
         <v>200</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="1" t="s">
+      <c r="E99" t="s">
+        <v>329</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>328</v>
+      <c r="A100" t="s">
+        <v>330</v>
+      </c>
+      <c r="B100" t="s">
+        <v>331</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" t="s">
         <v>200</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" s="1" t="s">
+      <c r="E100" t="s">
+        <v>332</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>331</v>
+      <c r="A101" t="s">
+        <v>333</v>
+      </c>
+      <c r="B101" t="s">
+        <v>334</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" t="s">
         <v>200</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="1" t="s">
+      <c r="E101" t="s">
+        <v>335</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>334</v>
+      <c r="A102" t="s">
+        <v>336</v>
+      </c>
+      <c r="B102" t="s">
+        <v>337</v>
       </c>
       <c r="C102">
-        <v>2</v>
-      </c>
-      <c r="D102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
         <v>200</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" s="1" t="s">
+      <c r="E102" t="s">
+        <v>338</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>337</v>
+      <c r="A103" t="s">
+        <v>339</v>
+      </c>
+      <c r="B103" t="s">
+        <v>340</v>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" t="s">
         <v>200</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="1" t="s">
+      <c r="E103" t="s">
+        <v>341</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>340</v>
+      <c r="A104" t="s">
+        <v>342</v>
+      </c>
+      <c r="B104" t="s">
+        <v>343</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" t="s">
         <v>200</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" s="1" t="s">
+      <c r="E104" t="s">
+        <v>344</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>343</v>
+      <c r="A105" t="s">
+        <v>345</v>
+      </c>
+      <c r="B105" t="s">
+        <v>346</v>
       </c>
       <c r="C105">
         <v>3</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" t="s">
         <v>200</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="1" t="s">
+      <c r="E105" t="s">
+        <v>347</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>346</v>
+      <c r="A106" t="s">
+        <v>348</v>
+      </c>
+      <c r="B106" t="s">
+        <v>349</v>
       </c>
       <c r="C106">
-        <v>3</v>
-      </c>
-      <c r="D106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
         <v>200</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="1" t="s">
+      <c r="E106" t="s">
+        <v>350</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>349</v>
+      <c r="A107" t="s">
+        <v>351</v>
+      </c>
+      <c r="B107" t="s">
+        <v>352</v>
       </c>
       <c r="C107">
         <v>4</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" t="s">
         <v>200</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="1" t="s">
+      <c r="E107" t="s">
+        <v>353</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>352</v>
+      <c r="A108" t="s">
+        <v>354</v>
+      </c>
+      <c r="B108" t="s">
+        <v>355</v>
       </c>
       <c r="C108">
         <v>4</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" t="s">
         <v>200</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" s="1" t="s">
+      <c r="E108" t="s">
+        <v>356</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>355</v>
+      <c r="A109" t="s">
+        <v>357</v>
+      </c>
+      <c r="B109" t="s">
+        <v>358</v>
       </c>
       <c r="C109">
         <v>4</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" t="s">
         <v>200</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" s="1" t="s">
+      <c r="E109" t="s">
+        <v>359</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>358</v>
+      <c r="A110" t="s">
+        <v>360</v>
+      </c>
+      <c r="B110" t="s">
+        <v>361</v>
       </c>
       <c r="C110">
         <v>4</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" t="s">
         <v>200</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" s="1" t="s">
+      <c r="E110" t="s">
+        <v>362</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>361</v>
+      <c r="A111" t="s">
+        <v>363</v>
+      </c>
+      <c r="B111" t="s">
+        <v>364</v>
       </c>
       <c r="C111">
         <v>4</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" t="s">
         <v>200</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="1" t="s">
+      <c r="E111" t="s">
+        <v>365</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>364</v>
+      <c r="A112" t="s">
+        <v>366</v>
+      </c>
+      <c r="B112" t="s">
+        <v>367</v>
       </c>
       <c r="C112">
         <v>4</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" t="s">
         <v>200</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" s="1" t="s">
+      <c r="E112" t="s">
+        <v>368</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C113">
-        <v>4</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="A113" t="s">
+        <v>369</v>
+      </c>
+      <c r="B113" t="s">
+        <v>370</v>
+      </c>
+      <c r="D113" t="s">
         <v>200</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>10</v>
+      <c r="E113" t="s">
+        <v>371</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="A114" t="s">
+        <v>372</v>
+      </c>
+      <c r="B114" t="s">
+        <v>373</v>
+      </c>
+      <c r="D114" t="s">
         <v>200</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>313</v>
+      <c r="E114" t="s">
+        <v>374</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D115" s="1" t="s">
+      <c r="A115" t="s">
+        <v>375</v>
+      </c>
+      <c r="B115" t="s">
+        <v>376</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
         <v>200</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>317</v>
+      <c r="E115" t="s">
+        <v>377</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>376</v>
+      <c r="A116" t="s">
+        <v>378</v>
+      </c>
+      <c r="B116" t="s">
+        <v>379</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" t="s">
         <v>200</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" s="1" t="s">
+      <c r="E116" t="s">
+        <v>380</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>379</v>
+      <c r="A117" t="s">
+        <v>381</v>
+      </c>
+      <c r="B117" t="s">
+        <v>382</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" t="s">
         <v>200</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>10</v>
+      <c r="E117" t="s">
+        <v>383</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>382</v>
+      <c r="A118" t="s">
+        <v>385</v>
+      </c>
+      <c r="B118" t="s">
+        <v>386</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" t="s">
         <v>200</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>384</v>
+      <c r="E118" t="s">
+        <v>387</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>386</v>
+      <c r="A119" t="s">
+        <v>388</v>
+      </c>
+      <c r="B119" t="s">
+        <v>389</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" t="s">
         <v>200</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>10</v>
+      <c r="E119" t="s">
+        <v>390</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>389</v>
+      <c r="A120" t="s">
+        <v>391</v>
+      </c>
+      <c r="B120" t="s">
+        <v>392</v>
       </c>
       <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
         <v>200</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>313</v>
+      <c r="E120" t="s">
+        <v>393</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>392</v>
+      <c r="A121" t="s">
+        <v>394</v>
+      </c>
+      <c r="B121" t="s">
+        <v>395</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" t="s">
         <v>200</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" s="1" t="s">
+      <c r="E121" t="s">
+        <v>396</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>395</v>
+      <c r="A122" t="s">
+        <v>397</v>
+      </c>
+      <c r="B122" t="s">
+        <v>398</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" t="s">
         <v>200</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" s="1" t="s">
+      <c r="E122" t="s">
+        <v>399</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>398</v>
+      <c r="A123" t="s">
+        <v>400</v>
+      </c>
+      <c r="B123" t="s">
+        <v>401</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" t="s">
         <v>200</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" s="1" t="s">
+      <c r="E123" t="s">
+        <v>402</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>401</v>
+      <c r="A124" t="s">
+        <v>403</v>
+      </c>
+      <c r="B124" t="s">
+        <v>404</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" t="s">
         <v>200</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="1" t="s">
+      <c r="E124" t="s">
+        <v>405</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>404</v>
+      <c r="A125" t="s">
+        <v>406</v>
+      </c>
+      <c r="B125" t="s">
+        <v>407</v>
       </c>
       <c r="C125">
-        <v>2</v>
-      </c>
-      <c r="D125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" t="s">
         <v>200</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" s="1" t="s">
+      <c r="E125" t="s">
+        <v>408</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>407</v>
+      <c r="A126" t="s">
+        <v>409</v>
+      </c>
+      <c r="B126" t="s">
+        <v>410</v>
       </c>
       <c r="C126">
         <v>3</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" t="s">
         <v>200</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" s="1" t="s">
+      <c r="E126" t="s">
+        <v>411</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>410</v>
+      <c r="A127" t="s">
+        <v>412</v>
+      </c>
+      <c r="B127" t="s">
+        <v>413</v>
       </c>
       <c r="C127">
         <v>3</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" t="s">
         <v>200</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" s="1" t="s">
+      <c r="E127" t="s">
+        <v>414</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>413</v>
+      <c r="A128" t="s">
+        <v>415</v>
+      </c>
+      <c r="B128" t="s">
+        <v>416</v>
       </c>
       <c r="C128">
-        <v>3</v>
-      </c>
-      <c r="D128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" t="s">
         <v>200</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" s="1" t="s">
+      <c r="E128" t="s">
+        <v>417</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>416</v>
+      <c r="A129" t="s">
+        <v>418</v>
+      </c>
+      <c r="B129" t="s">
+        <v>419</v>
       </c>
       <c r="C129">
         <v>4</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" t="s">
         <v>200</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H129" s="1" t="s">
+      <c r="E129" t="s">
+        <v>420</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>419</v>
+      <c r="A130" t="s">
+        <v>421</v>
+      </c>
+      <c r="B130" t="s">
+        <v>422</v>
       </c>
       <c r="C130">
         <v>4</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" t="s">
         <v>200</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" s="1" t="s">
+      <c r="E130" t="s">
+        <v>423</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>422</v>
+      <c r="A131" t="s">
+        <v>424</v>
+      </c>
+      <c r="B131" t="s">
+        <v>425</v>
       </c>
       <c r="C131">
         <v>4</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" t="s">
         <v>200</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H131" s="1" t="s">
+      <c r="E131" t="s">
+        <v>426</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>425</v>
+      <c r="A132" t="s">
+        <v>427</v>
+      </c>
+      <c r="B132" t="s">
+        <v>428</v>
       </c>
       <c r="C132">
         <v>4</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" t="s">
         <v>200</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" s="1" t="s">
+      <c r="E132" t="s">
+        <v>429</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>428</v>
+      <c r="A133" t="s">
+        <v>430</v>
+      </c>
+      <c r="B133" t="s">
+        <v>431</v>
       </c>
       <c r="C133">
         <v>4</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" t="s">
         <v>200</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H133" s="1" t="s">
+      <c r="E133" t="s">
+        <v>432</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>431</v>
+      <c r="A134" t="s">
+        <v>433</v>
+      </c>
+      <c r="B134" t="s">
+        <v>434</v>
       </c>
       <c r="C134">
         <v>4</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" t="s">
         <v>200</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>10</v>
+      <c r="E134" t="s">
+        <v>435</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C135">
-        <v>4</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>313</v>
+      <c r="A135" t="s">
+        <v>436</v>
+      </c>
+      <c r="B135" t="s">
+        <v>437</v>
+      </c>
+      <c r="D135" t="s">
+        <v>438</v>
+      </c>
+      <c r="E135" t="s">
+        <v>439</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
+        <v>96</v>
+      </c>
+      <c r="H135" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D136" s="1" t="s">
+      <c r="A136" t="s">
+        <v>440</v>
+      </c>
+      <c r="B136" t="s">
+        <v>441</v>
+      </c>
+      <c r="D136" t="s">
         <v>438</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="1" t="s">
+      <c r="E136" t="s">
+        <v>442</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" t="s">
         <v>96</v>
       </c>
-      <c r="H136" s="1" t="s">
+      <c r="H136" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D137" s="1" t="s">
+      <c r="A137" t="s">
+        <v>443</v>
+      </c>
+      <c r="B137" t="s">
+        <v>444</v>
+      </c>
+      <c r="D137" t="s">
         <v>438</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="1" t="s">
+      <c r="E137" t="s">
+        <v>445</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
         <v>96</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="H137" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D138" s="1" t="s">
+      <c r="A138" t="s">
+        <v>446</v>
+      </c>
+      <c r="B138" t="s">
+        <v>447</v>
+      </c>
+      <c r="D138" t="s">
         <v>438</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="1" t="s">
+      <c r="E138" t="s">
+        <v>448</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" t="s">
         <v>96</v>
       </c>
-      <c r="H138" s="1" t="s">
+      <c r="H138" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="A139" t="s">
         <v>8</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B139" t="s">
         <v>9</v>
       </c>
-      <c r="C140" t="s">
-        <v>10</v>
-      </c>
-      <c r="D140" s="1" t="s">
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" t="s">
         <v>11</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="1" t="s">
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" t="s">
         <v>12</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H140" s="1" t="s">
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6037,18 +5928,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DB5874-E414-437C-BE75-7A98A089D108}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
